--- a/List spare parts-Anugerah Auto.xlsx
+++ b/List spare parts-Anugerah Auto.xlsx
@@ -8007,7 +8007,7 @@
   <dimension ref="A1:M1266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
